--- a/Short Term Solutions/Data Files/UBS Statement Template.xlsx
+++ b/Short Term Solutions/Data Files/UBS Statement Template.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -456,11 +456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="73.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
